--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9254A3D7-DAF9-4E58-B2AF-EEF8401CF4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0793E8FD-D011-448F-8AF3-77054555301B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Date Solved</t>
   </si>
@@ -62,6 +62,30 @@
   </si>
   <si>
     <t>100days dsa.in</t>
+  </si>
+  <si>
+    <t>238. Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-array-except-self/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/power-of-two/</t>
+  </si>
+  <si>
+    <t>Edslash</t>
+  </si>
+  <si>
+    <t>231. Power of Two</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>9. Palindrome Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-number/description/</t>
   </si>
 </sst>
 </file>
@@ -106,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,6 +153,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -137,7 +170,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -146,8 +179,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -454,20 +493,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
     <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="51.77734375" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="6" max="6" width="62.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" customWidth="1"/>
     <col min="9" max="9" width="12.77734375" customWidth="1"/>
   </cols>
@@ -499,7 +538,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
@@ -521,11 +560,78 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{83417451-E95C-4CD2-B0ED-B80A6CC2B3F4}"/>
     <hyperlink ref="C2" r:id="rId2" display="https://leetcode.com/problems/count-primes/" xr:uid="{594F99EB-3EA0-40BE-B5AA-3C5457E73CC2}"/>
+    <hyperlink ref="C3" r:id="rId3" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{38519973-6EDE-4773-8F0B-BEC8F693BC3A}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{4F55CAAA-CD02-4506-8800-355943798538}"/>
+    <hyperlink ref="C5" r:id="rId5" display="https://leetcode.com/problems/power-of-two/" xr:uid="{14724B9A-68E6-4CF6-9393-903AC016D0E2}"/>
+    <hyperlink ref="C4" r:id="rId6" display="https://leetcode.com/problems/palindrome-number/" xr:uid="{A09A28EA-D8FB-463D-8C78-4338F0286789}"/>
+    <hyperlink ref="F4" r:id="rId7" xr:uid="{8924F032-00FD-4761-B903-4048B35AF187}"/>
+    <hyperlink ref="F5" r:id="rId8" xr:uid="{8ED94D84-252E-4533-A1EC-AC2E5F9B1C5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0793E8FD-D011-448F-8AF3-77054555301B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEBA7B9-43D4-4393-AE71-92D3B8A71633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Date Solved</t>
   </si>
@@ -86,6 +86,21 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/palindrome-number/description/</t>
+  </si>
+  <si>
+    <t>66. Plus One</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/plus-one/</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>43. Multiply Strings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/multiply-strings/description/</t>
   </si>
 </sst>
 </file>
@@ -130,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -162,6 +177,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -170,7 +194,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -186,6 +210,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +627,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
@@ -617,10 +644,62 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45545</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -632,6 +711,9 @@
     <hyperlink ref="C4" r:id="rId6" display="https://leetcode.com/problems/palindrome-number/" xr:uid="{A09A28EA-D8FB-463D-8C78-4338F0286789}"/>
     <hyperlink ref="F4" r:id="rId7" xr:uid="{8924F032-00FD-4761-B903-4048B35AF187}"/>
     <hyperlink ref="F5" r:id="rId8" xr:uid="{8ED94D84-252E-4533-A1EC-AC2E5F9B1C5F}"/>
+    <hyperlink ref="C6" r:id="rId9" display="https://leetcode.com/problems/plus-one/" xr:uid="{87887A5A-1358-4229-836A-248C5C83653B}"/>
+    <hyperlink ref="F6" r:id="rId10" xr:uid="{927E184C-42B8-4041-B9DA-C2B3335437D9}"/>
+    <hyperlink ref="C7" r:id="rId11" display="https://leetcode.com/problems/multiply-strings/" xr:uid="{0A72BDF4-2756-4CCC-B24A-B3D98D0F2186}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEBA7B9-43D4-4393-AE71-92D3B8A71633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D388605F-CDCE-459A-A453-88B0E8E0D152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>Date Solved</t>
   </si>
@@ -101,13 +101,67 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/multiply-strings/description/</t>
+  </si>
+  <si>
+    <t>day1</t>
+  </si>
+  <si>
+    <t>two sum</t>
+  </si>
+  <si>
+    <t>striver sheet</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum/description/</t>
+  </si>
+  <si>
+    <t>Two sum input is sorted</t>
+  </si>
+  <si>
+    <t>Largest element</t>
+  </si>
+  <si>
+    <t>Second small or large</t>
+  </si>
+  <si>
+    <t>Check if array is sorted</t>
+  </si>
+  <si>
+    <t>Remove duplicates from sorted array</t>
+  </si>
+  <si>
+    <t>day 2</t>
+  </si>
+  <si>
+    <t>rotate array</t>
+  </si>
+  <si>
+    <t>move zeroes to end</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>two pointer</t>
+  </si>
+  <si>
+    <t>268. Missing Number</t>
+  </si>
+  <si>
+    <t>sum on n numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/missing-number/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/move-zeroes/submissions/1373244015/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +190,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -145,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -186,6 +246,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -194,7 +293,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -209,11 +308,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -520,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C20" sqref="C20:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,10 +640,9 @@
     <col min="3" max="3" width="35.21875" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
     <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="62.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="62.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -555,17 +662,17 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
@@ -580,15 +687,15 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1" t="s">
         <v>14</v>
@@ -599,15 +706,15 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -618,16 +725,16 @@
       <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
@@ -637,15 +744,15 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="4">
@@ -660,15 +767,15 @@
       <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>25</v>
@@ -679,20 +786,160 @@
       <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="8">
+        <v>45579</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="8">
+        <v>45580</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -703,17 +950,18 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{83417451-E95C-4CD2-B0ED-B80A6CC2B3F4}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{83417451-E95C-4CD2-B0ED-B80A6CC2B3F4}"/>
     <hyperlink ref="C2" r:id="rId2" display="https://leetcode.com/problems/count-primes/" xr:uid="{594F99EB-3EA0-40BE-B5AA-3C5457E73CC2}"/>
     <hyperlink ref="C3" r:id="rId3" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{38519973-6EDE-4773-8F0B-BEC8F693BC3A}"/>
-    <hyperlink ref="F3" r:id="rId4" xr:uid="{4F55CAAA-CD02-4506-8800-355943798538}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{4F55CAAA-CD02-4506-8800-355943798538}"/>
     <hyperlink ref="C5" r:id="rId5" display="https://leetcode.com/problems/power-of-two/" xr:uid="{14724B9A-68E6-4CF6-9393-903AC016D0E2}"/>
     <hyperlink ref="C4" r:id="rId6" display="https://leetcode.com/problems/palindrome-number/" xr:uid="{A09A28EA-D8FB-463D-8C78-4338F0286789}"/>
-    <hyperlink ref="F4" r:id="rId7" xr:uid="{8924F032-00FD-4761-B903-4048B35AF187}"/>
-    <hyperlink ref="F5" r:id="rId8" xr:uid="{8ED94D84-252E-4533-A1EC-AC2E5F9B1C5F}"/>
+    <hyperlink ref="H4" r:id="rId7" xr:uid="{8924F032-00FD-4761-B903-4048B35AF187}"/>
+    <hyperlink ref="H5" r:id="rId8" xr:uid="{8ED94D84-252E-4533-A1EC-AC2E5F9B1C5F}"/>
     <hyperlink ref="C6" r:id="rId9" display="https://leetcode.com/problems/plus-one/" xr:uid="{87887A5A-1358-4229-836A-248C5C83653B}"/>
-    <hyperlink ref="F6" r:id="rId10" xr:uid="{927E184C-42B8-4041-B9DA-C2B3335437D9}"/>
+    <hyperlink ref="H6" r:id="rId10" xr:uid="{927E184C-42B8-4041-B9DA-C2B3335437D9}"/>
     <hyperlink ref="C7" r:id="rId11" display="https://leetcode.com/problems/multiply-strings/" xr:uid="{0A72BDF4-2756-4CCC-B24A-B3D98D0F2186}"/>
+    <hyperlink ref="C22" r:id="rId12" display="https://leetcode.com/problems/missing-number/" xr:uid="{08756675-59F3-49D9-90C7-A0EC76454712}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D388605F-CDCE-459A-A453-88B0E8E0D152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFCEDFC-0CAA-4C18-AF66-FC84561C0B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>Date Solved</t>
   </si>
@@ -155,6 +155,39 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/move-zeroes/submissions/1373244015/</t>
+  </si>
+  <si>
+    <t>day2</t>
+  </si>
+  <si>
+    <t>sort colours</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>three pointers(dtuch national flag</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-colors/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/majority-element/</t>
+  </si>
+  <si>
+    <t>majority element</t>
+  </si>
+  <si>
+    <t>moores voting algortihm</t>
+  </si>
+  <si>
+    <t>kadanes algorithm</t>
+  </si>
+  <si>
+    <t>kadane algorithm</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray/</t>
   </si>
 </sst>
 </file>
@@ -302,6 +335,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -313,15 +355,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -628,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,10 +705,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="9">
         <v>45544</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -695,8 +728,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
@@ -714,8 +747,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -733,8 +766,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
@@ -752,10 +785,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="9">
         <v>45545</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -775,8 +808,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
@@ -794,18 +827,18 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="4">
         <v>45579</v>
       </c>
       <c r="C14" t="s">
@@ -825,7 +858,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
@@ -836,7 +869,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D16" t="s">
@@ -847,7 +880,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D17" t="s">
@@ -858,7 +891,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D18" t="s">
@@ -869,7 +902,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D19" t="s">
@@ -880,29 +913,29 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="11"/>
+      <c r="D20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="4">
         <v>45580</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D21" t="s">
@@ -939,6 +972,87 @@
       </c>
       <c r="H22" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="4">
+        <v>45581</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -962,6 +1076,7 @@
     <hyperlink ref="H6" r:id="rId10" xr:uid="{927E184C-42B8-4041-B9DA-C2B3335437D9}"/>
     <hyperlink ref="C7" r:id="rId11" display="https://leetcode.com/problems/multiply-strings/" xr:uid="{0A72BDF4-2756-4CCC-B24A-B3D98D0F2186}"/>
     <hyperlink ref="C22" r:id="rId12" display="https://leetcode.com/problems/missing-number/" xr:uid="{08756675-59F3-49D9-90C7-A0EC76454712}"/>
+    <hyperlink ref="H30" r:id="rId13" xr:uid="{ED77079A-7DD9-4EBB-AF9F-816079B4C4B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFCEDFC-0CAA-4C18-AF66-FC84561C0B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248EF8B9-98F9-46F5-A79A-945E77E84145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>Date Solved</t>
   </si>
@@ -188,6 +188,21 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-subarray/</t>
+  </si>
+  <si>
+    <t>day4</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/squares-of-a-sorted-array/description/</t>
+  </si>
+  <si>
+    <t>Leetcode</t>
+  </si>
+  <si>
+    <t>siddharth sheet</t>
+  </si>
+  <si>
+    <t>Squares of a Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -661,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,9 +1065,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="4">
+        <v>45583</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1077,6 +1115,7 @@
     <hyperlink ref="C7" r:id="rId11" display="https://leetcode.com/problems/multiply-strings/" xr:uid="{0A72BDF4-2756-4CCC-B24A-B3D98D0F2186}"/>
     <hyperlink ref="C22" r:id="rId12" display="https://leetcode.com/problems/missing-number/" xr:uid="{08756675-59F3-49D9-90C7-A0EC76454712}"/>
     <hyperlink ref="H30" r:id="rId13" xr:uid="{ED77079A-7DD9-4EBB-AF9F-816079B4C4B6}"/>
+    <hyperlink ref="H35" r:id="rId14" xr:uid="{216C67A3-116F-40B0-B613-9E9A0107BF50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248EF8B9-98F9-46F5-A79A-945E77E84145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECD6300-BFA3-48EA-8531-FD256569F32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
   <si>
     <t>Date Solved</t>
   </si>
@@ -203,6 +203,78 @@
   </si>
   <si>
     <t>Squares of a Sorted Array</t>
+  </si>
+  <si>
+    <t>day 5</t>
+  </si>
+  <si>
+    <t>solve me first</t>
+  </si>
+  <si>
+    <t>hackerrank</t>
+  </si>
+  <si>
+    <t>30days</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/simple-array-sum/problem</t>
+  </si>
+  <si>
+    <t>array sum</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/solve-me-first/problem</t>
+  </si>
+  <si>
+    <t>compare the triplets</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/compare-the-triplets/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/a-very-big-sum/problem</t>
+  </si>
+  <si>
+    <t>very long sum</t>
+  </si>
+  <si>
+    <t>diagonal difference</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/diagonal-difference/problem</t>
+  </si>
+  <si>
+    <t>plus minus</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/plus-minus/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/staircase/problem</t>
+  </si>
+  <si>
+    <t>staircase</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/mini-max-sum/problem</t>
+  </si>
+  <si>
+    <t>mini-max-prblem</t>
+  </si>
+  <si>
+    <t>birthday cake candles</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/birthday-cake-candles/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/grading/problem</t>
+  </si>
+  <si>
+    <t>30 days</t>
+  </si>
+  <si>
+    <t>grading problem</t>
   </si>
 </sst>
 </file>
@@ -676,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,6 +1163,152 @@
       </c>
       <c r="H35" s="1" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="4">
+        <v>45584</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECD6300-BFA3-48EA-8531-FD256569F32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA0880B-7DC4-4C69-9EC0-147F6A19B60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
   <si>
     <t>Date Solved</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>grading problem</t>
+  </si>
+  <si>
+    <t>apple and orange</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/apple-and-orange/problem</t>
   </si>
 </sst>
 </file>
@@ -748,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1309,6 +1315,23 @@
       </c>
       <c r="H45" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>45585</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" t="s">
+        <v>64</v>
+      </c>
+      <c r="H47" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA0880B-7DC4-4C69-9EC0-147F6A19B60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F7F2BB-2C4D-4A5C-BF89-BD77CD41FBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="89">
   <si>
     <t>Date Solved</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/apple-and-orange/problem</t>
+  </si>
+  <si>
+    <t>breaking the record</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/breaking-best-and-worst-records/problem</t>
   </si>
 </sst>
 </file>
@@ -754,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,6 +1338,23 @@
       </c>
       <c r="H47" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>45588</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F7F2BB-2C4D-4A5C-BF89-BD77CD41FBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE10C4D0-8680-41DD-B846-C9201430230C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="103">
   <si>
     <t>Date Solved</t>
   </si>
@@ -287,6 +287,48 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/breaking-best-and-worst-records/problem</t>
+  </si>
+  <si>
+    <t>binary search</t>
+  </si>
+  <si>
+    <t>leetcode</t>
+  </si>
+  <si>
+    <t>striver</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-search/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/floor-in-a-sorted-array-1587115620/1?track=DSASP-Searching&amp;amp%253BbatchId=154&amp;utm_source=youtube&amp;utm_medium=collab_striver_ytdescription&amp;utm_campaign=floor-in-a-sorted-array</t>
+  </si>
+  <si>
+    <t>lower bound</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/ceil-the-floor2802/1?utm_source=youtube&amp;utm_medium=collab_striver_ytdescription&amp;utm_campaign=ceil-the-floor</t>
+  </si>
+  <si>
+    <t>floor and ceil</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-insert-position/</t>
+  </si>
+  <si>
+    <t>search inserted position</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/ceiling-in-a-sorted-array_1825401</t>
+  </si>
+  <si>
+    <t>floor and ceil in sorted array</t>
+  </si>
+  <si>
+    <t>coding ninjas</t>
+  </si>
+  <si>
+    <t>moderate</t>
   </si>
 </sst>
 </file>
@@ -760,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1355,6 +1397,94 @@
       </c>
       <c r="H48" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
+        <v>45596</v>
+      </c>
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1510,9 @@
     <hyperlink ref="C22" r:id="rId12" display="https://leetcode.com/problems/missing-number/" xr:uid="{08756675-59F3-49D9-90C7-A0EC76454712}"/>
     <hyperlink ref="H30" r:id="rId13" xr:uid="{ED77079A-7DD9-4EBB-AF9F-816079B4C4B6}"/>
     <hyperlink ref="H35" r:id="rId14" xr:uid="{216C67A3-116F-40B0-B613-9E9A0107BF50}"/>
+    <hyperlink ref="H53" r:id="rId15" xr:uid="{77AE837F-21F2-4E4E-98C4-42F26CDA16EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE10C4D0-8680-41DD-B846-C9201430230C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8885697C-22D2-4DDA-B3F0-64C67AACCBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
   <si>
     <t>Date Solved</t>
   </si>
@@ -329,6 +329,18 @@
   </si>
   <si>
     <t>moderate</t>
+  </si>
+  <si>
+    <t>square root using binary seacrh</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/square-root/0?utm_source=youtube&amp;utm_medium=collab_striver_ytdescription&amp;utm_campaign=square-root</t>
+  </si>
+  <si>
+    <t>nth root using binary search'</t>
+  </si>
+  <si>
+    <t>gfg</t>
   </si>
 </sst>
 </file>
@@ -802,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1485,6 +1497,40 @@
       </c>
       <c r="H53" s="1" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="4">
+        <v>45597</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8885697C-22D2-4DDA-B3F0-64C67AACCBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B32F017-541C-4CFA-846A-F4D8D8FE0BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="114">
   <si>
     <t>Date Solved</t>
   </si>
@@ -341,13 +341,34 @@
   </si>
   <si>
     <t>gfg</t>
+  </si>
+  <si>
+    <t>Fresh Start</t>
+  </si>
+  <si>
+    <t>count digits</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/count-digits5716/1</t>
+  </si>
+  <si>
+    <t>reverse a digit</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-integer/</t>
+  </si>
+  <si>
+    <t>check palindrome</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-number/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,13 +403,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -479,7 +515,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -508,6 +544,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -814,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1411,7 +1453,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B49" s="4">
         <v>45596</v>
       </c>
@@ -1431,7 +1473,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>94</v>
       </c>
@@ -1448,7 +1490,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>96</v>
       </c>
@@ -1465,7 +1507,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>98</v>
       </c>
@@ -1482,7 +1524,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>100</v>
       </c>
@@ -1499,7 +1541,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
         <v>45597</v>
       </c>
@@ -1519,7 +1561,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>105</v>
       </c>
@@ -1533,12 +1575,72 @@
         <v>91</v>
       </c>
     </row>
+    <row r="60" spans="1:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A60" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="4">
+        <v>45636</v>
+      </c>
+      <c r="C62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" t="s">
+        <v>91</v>
+      </c>
+      <c r="H64" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A60:XFD60"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B32F017-541C-4CFA-846A-F4D8D8FE0BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827027D6-5116-40CB-911A-4810FE6AC6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
   <si>
     <t>Date Solved</t>
   </si>
@@ -362,6 +362,42 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/palindrome-number/</t>
+  </si>
+  <si>
+    <t>print all divisors</t>
+  </si>
+  <si>
+    <t>codestudio</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/sum-of-all-divisors_8360720?utm_source=striver&amp;utm_medium=website&amp;utm_campaign=a_zcoursetuf&amp;leftPanelTabValue=PROBLEM</t>
+  </si>
+  <si>
+    <t>gcd and hcf</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/lcm-and-gcd4516/1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/second-largest3735/1?utm_source=youtube&amp;utm_medium=collab_striver_ytdescription&amp;utm_campaign=second-largest</t>
+  </si>
+  <si>
+    <t>second largest</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/single-number/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shraddha </t>
+  </si>
+  <si>
+    <t>single digit</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array/</t>
+  </si>
+  <si>
+    <t>remove duplicates</t>
   </si>
 </sst>
 </file>
@@ -545,10 +581,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -856,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1575,8 +1611,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A60" s="14" t="s">
+    <row r="60" spans="1:8" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A60" s="13" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1632,6 +1668,99 @@
       </c>
       <c r="H64" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="4">
+        <v>45637</v>
+      </c>
+      <c r="C67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" t="s">
+        <v>102</v>
+      </c>
+      <c r="G67" t="s">
+        <v>91</v>
+      </c>
+      <c r="H67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" t="s">
+        <v>91</v>
+      </c>
+      <c r="H68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" t="s">
+        <v>91</v>
+      </c>
+      <c r="H69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" t="s">
+        <v>122</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" t="s">
+        <v>39</v>
+      </c>
+      <c r="G71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1659,8 +1788,9 @@
     <hyperlink ref="H30" r:id="rId13" xr:uid="{ED77079A-7DD9-4EBB-AF9F-816079B4C4B6}"/>
     <hyperlink ref="H35" r:id="rId14" xr:uid="{216C67A3-116F-40B0-B613-9E9A0107BF50}"/>
     <hyperlink ref="H53" r:id="rId15" xr:uid="{77AE837F-21F2-4E4E-98C4-42F26CDA16EA}"/>
+    <hyperlink ref="H70" r:id="rId16" xr:uid="{D61C0ACB-ABF5-4452-8688-93DD4878FD83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827027D6-5116-40CB-911A-4810FE6AC6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD86D3E-0EF3-4D96-B0F0-B48DA6E4F82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="137">
   <si>
     <t>Date Solved</t>
   </si>
@@ -398,6 +398,39 @@
   </si>
   <si>
     <t>remove duplicates</t>
+  </si>
+  <si>
+    <t>zeroes to the end</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/move-zeroes/</t>
+  </si>
+  <si>
+    <t>merging of two arrays</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/sorted-array_6613259?utm_source=striver&amp;utm_medium=website&amp;utm_campaign=codestudio_a_zcourse</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-consecutive-ones/description/</t>
+  </si>
+  <si>
+    <t>maximum ones</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/missing-number/submissions/1476780717/</t>
+  </si>
+  <si>
+    <t>missing number</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/longest-sub-array-with-sum-k0809/1?utm_source=youtube&amp;utm_medium=collab_striver_ytdescription&amp;utm_campaign=longest-sub-array-with-sum-k</t>
+  </si>
+  <si>
+    <t>longest subarray with sum k</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum/submissions/1476813105/</t>
   </si>
 </sst>
 </file>
@@ -892,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1761,6 +1794,145 @@
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="4">
+        <v>45638</v>
+      </c>
+      <c r="C73" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" t="s">
+        <v>91</v>
+      </c>
+      <c r="H73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" t="s">
+        <v>102</v>
+      </c>
+      <c r="G74" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" t="s">
+        <v>102</v>
+      </c>
+      <c r="G77" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" t="s">
+        <v>91</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" t="s">
+        <v>102</v>
+      </c>
+      <c r="G79" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" t="s">
+        <v>102</v>
+      </c>
+      <c r="G80" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1789,8 +1961,9 @@
     <hyperlink ref="H35" r:id="rId14" xr:uid="{216C67A3-116F-40B0-B613-9E9A0107BF50}"/>
     <hyperlink ref="H53" r:id="rId15" xr:uid="{77AE837F-21F2-4E4E-98C4-42F26CDA16EA}"/>
     <hyperlink ref="H70" r:id="rId16" xr:uid="{D61C0ACB-ABF5-4452-8688-93DD4878FD83}"/>
+    <hyperlink ref="H78" r:id="rId17" xr:uid="{F9762656-7AA6-4C50-8F26-B920D0338DE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD86D3E-0EF3-4D96-B0F0-B48DA6E4F82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA19EB16-3DCC-4FE7-B13D-6A252D993FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="151">
   <si>
     <t>Date Solved</t>
   </si>
@@ -431,6 +432,48 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/two-sum/submissions/1476813105/</t>
+  </si>
+  <si>
+    <t>move all negative to one side</t>
+  </si>
+  <si>
+    <t>love babbar</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/move-negative-numbers-beginning-positive-end-constant-extra-space/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/cyclically-rotate-an-array-by-one2614/1</t>
+  </si>
+  <si>
+    <t>kadane</t>
+  </si>
+  <si>
+    <t>striver , love</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray/description/</t>
+  </si>
+  <si>
+    <t>leaders in an array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/leaders-in-an-array-1587115620/1?utm_source=youtube&amp;utm_medium=collab_striver_ytdescription&amp;utm_campaign=leaders-in-an-array</t>
+  </si>
+  <si>
+    <t>to practise</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/minimize-the-heights3351/1</t>
+  </si>
+  <si>
+    <t>minimise the maximum difference</t>
+  </si>
+  <si>
+    <t>stock prices</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/submissions/1477776872/</t>
   </si>
 </sst>
 </file>
@@ -925,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1933,6 +1976,108 @@
       </c>
       <c r="H80" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B82" s="4">
+        <v>45639</v>
+      </c>
+      <c r="C82" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" t="s">
+        <v>138</v>
+      </c>
+      <c r="H82" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" t="s">
+        <v>106</v>
+      </c>
+      <c r="E83" t="s">
+        <v>39</v>
+      </c>
+      <c r="G83" t="s">
+        <v>138</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>141</v>
+      </c>
+      <c r="D84" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" t="s">
+        <v>102</v>
+      </c>
+      <c r="G84" t="s">
+        <v>142</v>
+      </c>
+      <c r="H84" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>144</v>
+      </c>
+      <c r="D85" t="s">
+        <v>106</v>
+      </c>
+      <c r="E85" t="s">
+        <v>102</v>
+      </c>
+      <c r="G85" t="s">
+        <v>142</v>
+      </c>
+      <c r="H85" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" t="s">
+        <v>102</v>
+      </c>
+      <c r="G86" t="s">
+        <v>138</v>
+      </c>
+      <c r="H86" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>149</v>
+      </c>
+      <c r="D87" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" t="s">
+        <v>39</v>
+      </c>
+      <c r="G87" t="s">
+        <v>142</v>
+      </c>
+      <c r="H87" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1962,8 +2107,40 @@
     <hyperlink ref="H53" r:id="rId15" xr:uid="{77AE837F-21F2-4E4E-98C4-42F26CDA16EA}"/>
     <hyperlink ref="H70" r:id="rId16" xr:uid="{D61C0ACB-ABF5-4452-8688-93DD4878FD83}"/>
     <hyperlink ref="H78" r:id="rId17" xr:uid="{F9762656-7AA6-4C50-8F26-B920D0338DE2}"/>
+    <hyperlink ref="H83" r:id="rId18" xr:uid="{2AA991C8-572E-4265-B490-C2E3DDCAFFA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86169A0-A928-4228-814F-84FAD14EF840}">
+  <dimension ref="A3:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA19EB16-3DCC-4FE7-B13D-6A252D993FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8767233F-9A63-432A-9F6C-B1EBF6613732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="158">
   <si>
     <t>Date Solved</t>
   </si>
@@ -474,6 +474,27 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/submissions/1477776872/</t>
+  </si>
+  <si>
+    <t>insertion sort</t>
+  </si>
+  <si>
+    <t>bubble sort</t>
+  </si>
+  <si>
+    <t>selection sort</t>
+  </si>
+  <si>
+    <t>duplicate number</t>
+  </si>
+  <si>
+    <t>leetcoe</t>
+  </si>
+  <si>
+    <t>striver,love</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-duplicate-number/description/</t>
   </si>
 </sst>
 </file>
@@ -968,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2078,6 +2099,41 @@
       </c>
       <c r="H87" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B89" s="4">
+        <v>45640</v>
+      </c>
+      <c r="C89" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>154</v>
+      </c>
+      <c r="D92" t="s">
+        <v>155</v>
+      </c>
+      <c r="E92" t="s">
+        <v>102</v>
+      </c>
+      <c r="G92" t="s">
+        <v>156</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2108,9 +2164,10 @@
     <hyperlink ref="H70" r:id="rId16" xr:uid="{D61C0ACB-ABF5-4452-8688-93DD4878FD83}"/>
     <hyperlink ref="H78" r:id="rId17" xr:uid="{F9762656-7AA6-4C50-8F26-B920D0338DE2}"/>
     <hyperlink ref="H83" r:id="rId18" xr:uid="{2AA991C8-572E-4265-B490-C2E3DDCAFFA9}"/>
+    <hyperlink ref="H92" r:id="rId19" xr:uid="{DECC51E3-7197-4073-A93A-DBCD3F7B8EBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8767233F-9A63-432A-9F6C-B1EBF6613732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AB9007-18D7-47A3-8998-34989EA5CC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="162">
   <si>
     <t>Date Solved</t>
   </si>
@@ -495,6 +495,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/find-the-duplicate-number/description/</t>
+  </si>
+  <si>
+    <t>kth smallest</t>
+  </si>
+  <si>
+    <t>priority queue se karna baaki hai</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/kth-smallest-element5635/1</t>
   </si>
 </sst>
 </file>
@@ -989,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1729,7 +1741,7 @@
       <c r="G62" t="s">
         <v>91</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1746,7 +1758,7 @@
       <c r="G63" t="s">
         <v>91</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1763,7 +1775,7 @@
       <c r="G64" t="s">
         <v>91</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1783,7 +1795,7 @@
       <c r="G67" t="s">
         <v>91</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1800,7 +1812,7 @@
       <c r="G68" t="s">
         <v>91</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1817,7 +1829,7 @@
       <c r="G69" t="s">
         <v>91</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1851,7 +1863,7 @@
       <c r="G71" t="s">
         <v>91</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1876,7 +1888,7 @@
       <c r="G73" t="s">
         <v>91</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1893,7 +1905,7 @@
       <c r="G74" t="s">
         <v>91</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1910,7 +1922,7 @@
       <c r="G75" t="s">
         <v>91</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2134,6 +2146,63 @@
       </c>
       <c r="H92" s="1" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B94" s="4">
+        <v>45641</v>
+      </c>
+      <c r="C94" t="s">
+        <v>158</v>
+      </c>
+      <c r="D94" t="s">
+        <v>106</v>
+      </c>
+      <c r="E94" t="s">
+        <v>39</v>
+      </c>
+      <c r="F94" t="s">
+        <v>159</v>
+      </c>
+      <c r="G94" t="s">
+        <v>160</v>
+      </c>
+      <c r="H94" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" t="s">
+        <v>90</v>
+      </c>
+      <c r="E95" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" t="s">
+        <v>91</v>
+      </c>
+      <c r="H95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" t="s">
+        <v>106</v>
+      </c>
+      <c r="E96" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" t="s">
+        <v>91</v>
+      </c>
+      <c r="H96" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2165,9 +2234,19 @@
     <hyperlink ref="H78" r:id="rId17" xr:uid="{F9762656-7AA6-4C50-8F26-B920D0338DE2}"/>
     <hyperlink ref="H83" r:id="rId18" xr:uid="{2AA991C8-572E-4265-B490-C2E3DDCAFFA9}"/>
     <hyperlink ref="H92" r:id="rId19" xr:uid="{DECC51E3-7197-4073-A93A-DBCD3F7B8EBF}"/>
+    <hyperlink ref="H62" r:id="rId20" xr:uid="{F7E5DEE2-B3F6-4801-B21E-8A3300B26907}"/>
+    <hyperlink ref="H63" r:id="rId21" xr:uid="{25A7A444-03B4-4F2B-97CD-75711436725A}"/>
+    <hyperlink ref="H64" r:id="rId22" xr:uid="{9F4C36CE-5D56-4887-B6C7-B3633B334EAE}"/>
+    <hyperlink ref="H67" r:id="rId23" xr:uid="{9D5CFC1D-9BBF-42FC-BA40-44311DABB8ED}"/>
+    <hyperlink ref="H68" r:id="rId24" xr:uid="{F49A27E4-7660-40B6-B368-2FBA6CFADBFF}"/>
+    <hyperlink ref="H69" r:id="rId25" xr:uid="{654984B2-046A-46EC-81A6-F34FD50BE6B1}"/>
+    <hyperlink ref="H71" r:id="rId26" xr:uid="{2D8BF27F-7D1A-44A9-BFDB-BBB3DF690FB1}"/>
+    <hyperlink ref="H73" r:id="rId27" xr:uid="{07409DAB-E779-44F1-B057-7A1E23B00E3B}"/>
+    <hyperlink ref="H74" r:id="rId28" xr:uid="{5F9B0190-8F99-4B50-85DD-9FE57BC556F1}"/>
+    <hyperlink ref="H75" r:id="rId29" xr:uid="{EC8A61DF-15E9-4253-8BE5-45D887EB043B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
 

--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AB9007-18D7-47A3-8998-34989EA5CC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C646474A-C7F1-4E4B-90F2-F2E8E0552A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="164">
   <si>
     <t>Date Solved</t>
   </si>
@@ -507,6 +507,12 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/problems/kth-smallest-element5635/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array/</t>
+  </si>
+  <si>
+    <t>search in rotated sorted array</t>
   </si>
 </sst>
 </file>
@@ -1001,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2203,6 +2209,26 @@
       </c>
       <c r="H96" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99" s="4">
+        <v>45659</v>
+      </c>
+      <c r="C99" t="s">
+        <v>163</v>
+      </c>
+      <c r="D99" t="s">
+        <v>90</v>
+      </c>
+      <c r="E99" t="s">
+        <v>39</v>
+      </c>
+      <c r="G99" t="s">
+        <v>91</v>
+      </c>
+      <c r="H99" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C646474A-C7F1-4E4B-90F2-F2E8E0552A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533E3A23-3F55-41CF-BCD1-336F30FFD4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="166">
   <si>
     <t>Date Solved</t>
   </si>
@@ -513,6 +513,12 @@
   </si>
   <si>
     <t>search in rotated sorted array</t>
+  </si>
+  <si>
+    <t>koko eating bananas</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/koko-eating-bananas/description/</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2229,6 +2235,26 @@
       </c>
       <c r="H99" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101" s="4">
+        <v>45660</v>
+      </c>
+      <c r="C101" t="s">
+        <v>164</v>
+      </c>
+      <c r="D101" t="s">
+        <v>90</v>
+      </c>
+      <c r="E101" t="s">
+        <v>47</v>
+      </c>
+      <c r="G101" t="s">
+        <v>91</v>
+      </c>
+      <c r="H101" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533E3A23-3F55-41CF-BCD1-336F30FFD4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85A010D-E38C-425A-9AED-D3F23A43C695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="170">
   <si>
     <t>Date Solved</t>
   </si>
@@ -519,6 +519,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/koko-eating-bananas/description/</t>
+  </si>
+  <si>
+    <t>power of x</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/powx-n/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
+  </si>
+  <si>
+    <t>stocks</t>
   </si>
 </sst>
 </file>
@@ -570,7 +582,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,6 +592,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +690,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -708,6 +726,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1013,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2255,6 +2274,44 @@
       </c>
       <c r="H101" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" s="15" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B104" s="4">
+        <v>45666</v>
+      </c>
+      <c r="C104" t="s">
+        <v>166</v>
+      </c>
+      <c r="D104" t="s">
+        <v>90</v>
+      </c>
+      <c r="E104" t="s">
+        <v>39</v>
+      </c>
+      <c r="G104" t="s">
+        <v>122</v>
+      </c>
+      <c r="H104" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105" t="s">
+        <v>90</v>
+      </c>
+      <c r="E105" t="s">
+        <v>39</v>
+      </c>
+      <c r="G105" t="s">
+        <v>122</v>
+      </c>
+      <c r="H105" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/coding_questions_tracking.xlsx
+++ b/coding_questions_tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\Coding_Days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85A010D-E38C-425A-9AED-D3F23A43C695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652AB004-B8F8-4552-B2E7-CACA3C04C22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="172">
   <si>
     <t>Date Solved</t>
   </si>
@@ -531,6 +531,12 @@
   </si>
   <si>
     <t>stocks</t>
+  </si>
+  <si>
+    <t>implement lower and upper bound</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/floor-in-a-sorted-array-1587115620/1</t>
   </si>
 </sst>
 </file>
@@ -708,6 +714,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -726,7 +733,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1032,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,10 +1082,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="10">
         <v>45544</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1099,8 +1105,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,8 +1124,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1137,8 +1143,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1156,10 +1162,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>45545</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1179,8 +1185,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1198,12 +1204,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1751,8 +1757,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A60" s="13" t="s">
+    <row r="60" spans="1:8" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A60" s="14" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2276,7 +2282,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="102" spans="2:8" s="15" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="2:8" s="9" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" s="4">
         <v>45666</v>
@@ -2312,6 +2318,26 @@
       </c>
       <c r="H105" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B107" s="4">
+        <v>45667</v>
+      </c>
+      <c r="C107" t="s">
+        <v>170</v>
+      </c>
+      <c r="D107" t="s">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>39</v>
+      </c>
+      <c r="G107" t="s">
+        <v>91</v>
+      </c>
+      <c r="H107" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
